--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24119"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCA94E27-A7BF-471F-96DF-059B21DF43F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hpart\Desktop\Nishani8\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="38" windowWidth="15960" windowHeight="18083"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet 3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
   <si>
     <t>Monday</t>
   </si>
@@ -132,9 +134,6 @@
     <t>Emotional</t>
   </si>
   <si>
-    <t>Language</t>
-  </si>
-  <si>
     <t>Management</t>
   </si>
   <si>
@@ -147,175 +146,23 @@
     <t>Free Period</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color indexed="17"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://drive.google.com/file/d/1aYNaMESW8uF4TOGLgi_RYSiJnSCL0rnY/view?usp=drive_open</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color indexed="18"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://www.google.com/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color indexed="18"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://drive.google.com/file/d/19zWtups0cuoxecVZhsbO8CWM51DQFDn0/view</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color indexed="19"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://drive.google.com/file/d/1yahvkGF6DwKPcXZEwvZAFx2NWCFyniTw/view</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color indexed="18"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://drive.google.com/file/d/13NHDo7L294EfFJz4s-netE17BNQC3OOJ/view</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color indexed="18"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://drive.google.com/file/d/16x3SMO8p6MxNyjNIvtgX3w2XGiJ7asN8/view</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color indexed="18"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://drive.google.com/file/d/1vniuXyD4VFM1jLfKq--LN-wduyb5GHfa/view</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://www.google.com/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color indexed="18"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://drive.google.com/file/d/1ESRKns1kwQll2QCzMYOTroqcWAGF00LE/view</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color indexed="18"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://drive.google.com/file/d/1kV-E0_e6qI7ILfCpLlVEe2afAovYSW9O/view</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color indexed="18"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://drive.google.com/file/d/1Lzhq1GXHyhk822NXcRi9AuSsntie4iJ0/view</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color indexed="18"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://drive.google.com/file/d/1VNfVKFAMcz4_U7NtOguNKTej-8DI6c__/view</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color indexed="18"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://drive.google.com/file/d/1nUCg03j_N1D3KxJiXYlhblzAMiep7oy9/view</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color indexed="18"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://drive.google.com/file/d/1m-yomG0j3_dSa89JNL5pdgjDCkq1sQ0-/view</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color indexed="18"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://drive.google.com/file/d/11JzHq1dwZ6f0b5JYV1efab8L-9m0ApB8/view</t>
-    </r>
+    <t>Period 10</t>
+  </si>
+  <si>
+    <t>Nush</t>
+  </si>
+  <si>
+    <t>Daim</t>
+  </si>
+  <si>
+    <t>Moayyediyah</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -328,22 +175,22 @@
       <name val="Arial"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="10"/>
-      <color indexed="17"/>
+      <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <u/>
       <sz val="10"/>
-      <color indexed="18"/>
+      <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <u/>
       <sz val="10"/>
-      <color indexed="19"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -391,12 +238,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="16"/>
-        <bgColor auto="1"/>
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -409,28 +256,6 @@
         <color indexed="9"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
       <top style="thin">
         <color indexed="9"/>
       </top>
@@ -474,70 +299,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1697,820 +1549,275 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV12"/>
+  <dimension ref="A1:IT11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="256" width="14.42578125" style="1" customWidth="1"/>
+    <col min="1" max="254" width="14.3984375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13.7" customHeight="1">
+    <row r="1" spans="1:7" ht="13.7" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:9" ht="13.7" customHeight="1">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:7" ht="13.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="13.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="13.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="13.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="13.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="13.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="15" t="s">
+      <c r="C7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="13.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="13.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="10"/>
+      <c r="D9" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" ht="13.7" customHeight="1">
-      <c r="A3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="10"/>
+    <row r="10" spans="1:7" ht="13.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" ht="13.7" customHeight="1">
-      <c r="A4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="10"/>
-    </row>
-    <row r="5" spans="1:9" ht="13.7" customHeight="1">
-      <c r="A5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="10"/>
-    </row>
-    <row r="6" spans="1:9" ht="13.7" customHeight="1">
-      <c r="A6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="10"/>
-    </row>
-    <row r="7" spans="1:9" ht="13.7" customHeight="1">
-      <c r="A7" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="10"/>
-    </row>
-    <row r="8" spans="1:9" ht="13.7" customHeight="1">
-      <c r="A8" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="10"/>
-    </row>
-    <row r="9" spans="1:9" ht="13.7" customHeight="1">
-      <c r="A9" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="12" t="s">
+    <row r="11" spans="1:7" ht="13.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C11" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="1:9" ht="13.7" customHeight="1">
-      <c r="A10" s="11" t="s">
+      <c r="G11" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="1:9" ht="13.7" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-    </row>
-    <row r="12" spans="1:9" ht="13.7" customHeight="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:IV24"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="256" width="14.42578125" style="20" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="13.7" customHeight="1">
-      <c r="A1" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-    </row>
-    <row r="2" spans="1:5" ht="13.7" customHeight="1">
-      <c r="A2" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-    </row>
-    <row r="3" spans="1:5" ht="13.7" customHeight="1">
-      <c r="A3" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-    </row>
-    <row r="4" spans="1:5" ht="13.7" customHeight="1">
-      <c r="A4" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-    </row>
-    <row r="5" spans="1:5" ht="13.7" customHeight="1">
-      <c r="A5" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="1:5" ht="13.7" customHeight="1">
-      <c r="A6" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="1:5" ht="13.7" customHeight="1">
-      <c r="A7" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="1:5" ht="13.7" customHeight="1">
-      <c r="A8" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.7" customHeight="1">
-      <c r="A9" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="1:5" ht="13.7" customHeight="1">
-      <c r="A10" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="1:5" ht="13.7" customHeight="1">
-      <c r="A11" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="1:5" ht="13.7" customHeight="1">
-      <c r="A12" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="1:5" ht="13.7" customHeight="1">
-      <c r="A13" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" spans="1:5" ht="13.7" customHeight="1">
-      <c r="A14" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-    </row>
-    <row r="15" spans="1:5" ht="13.7" customHeight="1">
-      <c r="A15" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-    </row>
-    <row r="16" spans="1:5" ht="13.7" customHeight="1">
-      <c r="A16" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-    </row>
-    <row r="17" spans="1:5" ht="13.7" customHeight="1">
-      <c r="A17" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="1:5" ht="13.7" customHeight="1">
-      <c r="A18" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-    </row>
-    <row r="19" spans="1:5" ht="13.7" customHeight="1">
-      <c r="A19" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-    </row>
-    <row r="20" spans="1:5" ht="13.7" customHeight="1">
-      <c r="A20" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-    </row>
-    <row r="21" spans="1:5" ht="13.7" customHeight="1">
-      <c r="A21" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-    </row>
-    <row r="22" spans="1:5" ht="13.7" customHeight="1">
-      <c r="A22" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-    </row>
-    <row r="23" spans="1:5" ht="13.7" customHeight="1">
-      <c r="A23" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-    </row>
-    <row r="24" spans="1:5" ht="13.7" customHeight="1">
-      <c r="A24" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-    </row>
-  </sheetData>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:IV24"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="13.5" customHeight="1"/>
-  <cols>
-    <col min="1" max="256" width="14.42578125" style="25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="13.7" customHeight="1">
-      <c r="A1" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="26">
-        <v>19</v>
-      </c>
-      <c r="C1" s="10"/>
-    </row>
-    <row r="2" spans="1:3" ht="13.7" customHeight="1">
-      <c r="A2" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="26">
-        <v>0</v>
-      </c>
-      <c r="C2" s="10"/>
-    </row>
-    <row r="3" spans="1:3" ht="13.7" customHeight="1">
-      <c r="A3" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="26">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10"/>
-    </row>
-    <row r="4" spans="1:3" ht="13.7" customHeight="1">
-      <c r="A4" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="26">
-        <v>0</v>
-      </c>
-      <c r="C4" s="10"/>
-    </row>
-    <row r="5" spans="1:3" ht="13.7" customHeight="1">
-      <c r="A5" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="26">
-        <v>0</v>
-      </c>
-      <c r="C5" s="10"/>
-    </row>
-    <row r="6" spans="1:3" ht="13.7" customHeight="1">
-      <c r="A6" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="26">
-        <v>0</v>
-      </c>
-      <c r="C6" s="10"/>
-    </row>
-    <row r="7" spans="1:3" ht="13.7" customHeight="1">
-      <c r="A7" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="26">
-        <v>0</v>
-      </c>
-      <c r="C7" s="10"/>
-    </row>
-    <row r="8" spans="1:3" ht="13.7" customHeight="1">
-      <c r="A8" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="26">
-        <v>0</v>
-      </c>
-      <c r="C8" s="10"/>
-    </row>
-    <row r="9" spans="1:3" ht="13.7" customHeight="1">
-      <c r="A9" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="26">
-        <v>0</v>
-      </c>
-      <c r="C9" s="10"/>
-    </row>
-    <row r="10" spans="1:3" ht="13.7" customHeight="1">
-      <c r="A10" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="26">
-        <v>0</v>
-      </c>
-      <c r="C10" s="10"/>
-    </row>
-    <row r="11" spans="1:3" ht="13.7" customHeight="1">
-      <c r="A11" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="26">
-        <v>0</v>
-      </c>
-      <c r="C11" s="10"/>
-    </row>
-    <row r="12" spans="1:3" ht="13.7" customHeight="1">
-      <c r="A12" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="26">
-        <v>0</v>
-      </c>
-      <c r="C12" s="10"/>
-    </row>
-    <row r="13" spans="1:3" ht="13.7" customHeight="1">
-      <c r="A13" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="26">
-        <v>0</v>
-      </c>
-      <c r="C13" s="10"/>
-    </row>
-    <row r="14" spans="1:3" ht="13.7" customHeight="1">
-      <c r="A14" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="26">
-        <v>0</v>
-      </c>
-      <c r="C14" s="10"/>
-    </row>
-    <row r="15" spans="1:3" ht="13.7" customHeight="1">
-      <c r="A15" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="26">
-        <v>0</v>
-      </c>
-      <c r="C15" s="10"/>
-    </row>
-    <row r="16" spans="1:3" ht="13.7" customHeight="1">
-      <c r="A16" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="26">
-        <v>0</v>
-      </c>
-      <c r="C16" s="10"/>
-    </row>
-    <row r="17" spans="1:3" ht="13.7" customHeight="1">
-      <c r="A17" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="26">
-        <v>0</v>
-      </c>
-      <c r="C17" s="10"/>
-    </row>
-    <row r="18" spans="1:3" ht="13.7" customHeight="1">
-      <c r="A18" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="26">
-        <v>0</v>
-      </c>
-      <c r="C18" s="10"/>
-    </row>
-    <row r="19" spans="1:3" ht="13.7" customHeight="1">
-      <c r="A19" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="26">
-        <v>0</v>
-      </c>
-      <c r="C19" s="10"/>
-    </row>
-    <row r="20" spans="1:3" ht="13.7" customHeight="1">
-      <c r="A20" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="26">
-        <v>0</v>
-      </c>
-      <c r="C20" s="10"/>
-    </row>
-    <row r="21" spans="1:3" ht="13.7" customHeight="1">
-      <c r="A21" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="26">
-        <v>0</v>
-      </c>
-      <c r="C21" s="10"/>
-    </row>
-    <row r="22" spans="1:3" ht="13.7" customHeight="1">
-      <c r="A22" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="26">
-        <v>0</v>
-      </c>
-      <c r="C22" s="10"/>
-    </row>
-    <row r="23" spans="1:3" ht="13.7" customHeight="1">
-      <c r="A23" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="26">
-        <v>0</v>
-      </c>
-      <c r="C23" s="10"/>
-    </row>
-    <row r="24" spans="1:3" ht="13.7" customHeight="1">
-      <c r="A24" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="26">
-        <v>0</v>
-      </c>
-      <c r="C24" s="10"/>
-    </row>
-  </sheetData>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
